--- a/acs_coffee_management/employees_input.xlsx
+++ b/acs_coffee_management/employees_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D8DA5E-0AB9-446F-ACF7-E93401F37A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B151B17C-C070-48EA-B6AC-5FB638702D5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="208">
   <si>
     <t>_state</t>
   </si>
@@ -370,168 +370,6 @@
     <t>Yavuzer, Arty</t>
   </si>
   <si>
-    <t>qr-1</t>
-  </si>
-  <si>
-    <t>qr-2</t>
-  </si>
-  <si>
-    <t>qr-3</t>
-  </si>
-  <si>
-    <t>qr-4</t>
-  </si>
-  <si>
-    <t>qr-5</t>
-  </si>
-  <si>
-    <t>qr-6</t>
-  </si>
-  <si>
-    <t>qr-38</t>
-  </si>
-  <si>
-    <t>qr-7</t>
-  </si>
-  <si>
-    <t>qr-8</t>
-  </si>
-  <si>
-    <t>qr-9</t>
-  </si>
-  <si>
-    <t>qr-10</t>
-  </si>
-  <si>
-    <t>qr-11</t>
-  </si>
-  <si>
-    <t>qr-12</t>
-  </si>
-  <si>
-    <t>qr-39</t>
-  </si>
-  <si>
-    <t>qr-13</t>
-  </si>
-  <si>
-    <t>qr-40</t>
-  </si>
-  <si>
-    <t>qr-14</t>
-  </si>
-  <si>
-    <t>qr-41</t>
-  </si>
-  <si>
-    <t>qr-42</t>
-  </si>
-  <si>
-    <t>qr-15</t>
-  </si>
-  <si>
-    <t>qr-43</t>
-  </si>
-  <si>
-    <t>qr-16</t>
-  </si>
-  <si>
-    <t>qr-17</t>
-  </si>
-  <si>
-    <t>qr-19</t>
-  </si>
-  <si>
-    <t>qr-44</t>
-  </si>
-  <si>
-    <t>qr-18</t>
-  </si>
-  <si>
-    <t>qr-20</t>
-  </si>
-  <si>
-    <t>qr-21</t>
-  </si>
-  <si>
-    <t>qr-22</t>
-  </si>
-  <si>
-    <t>qr-23</t>
-  </si>
-  <si>
-    <t>qr-24</t>
-  </si>
-  <si>
-    <t>qr-25</t>
-  </si>
-  <si>
-    <t>qr-26</t>
-  </si>
-  <si>
-    <t>qr-27</t>
-  </si>
-  <si>
-    <t>qr-28</t>
-  </si>
-  <si>
-    <t>qr-45</t>
-  </si>
-  <si>
-    <t>qr-29</t>
-  </si>
-  <si>
-    <t>qr-30</t>
-  </si>
-  <si>
-    <t>qr-46</t>
-  </si>
-  <si>
-    <t>qr-47</t>
-  </si>
-  <si>
-    <t>qr-32</t>
-  </si>
-  <si>
-    <t>qr-31</t>
-  </si>
-  <si>
-    <t>qr-33</t>
-  </si>
-  <si>
-    <t>qr-48</t>
-  </si>
-  <si>
-    <t>qr-49</t>
-  </si>
-  <si>
-    <t>qr-34</t>
-  </si>
-  <si>
-    <t>qr-50</t>
-  </si>
-  <si>
-    <t>qr-51</t>
-  </si>
-  <si>
-    <t>qr-52</t>
-  </si>
-  <si>
-    <t>qr-53</t>
-  </si>
-  <si>
-    <t>qr-36</t>
-  </si>
-  <si>
-    <t>qr-35</t>
-  </si>
-  <si>
-    <t>qr-54</t>
-  </si>
-  <si>
-    <t>qr-37</t>
-  </si>
-  <si>
     <t>nan</t>
   </si>
   <si>
@@ -641,6 +479,171 @@
   </si>
   <si>
     <t>3.25</t>
+  </si>
+  <si>
+    <t>acosta-andres</t>
+  </si>
+  <si>
+    <t>ahmadifar-amir</t>
+  </si>
+  <si>
+    <t>alexandra-bach</t>
+  </si>
+  <si>
+    <t>nicole-bielders</t>
+  </si>
+  <si>
+    <t>robert-bielders</t>
+  </si>
+  <si>
+    <t>cesar-cazal</t>
+  </si>
+  <si>
+    <t>kenny-chen</t>
+  </si>
+  <si>
+    <t>niklas-eiling</t>
+  </si>
+  <si>
+    <t>charles-ehemel</t>
+  </si>
+  <si>
+    <t>laura-fuentes-grau</t>
+  </si>
+  <si>
+    <t>hamza-gabbar</t>
+  </si>
+  <si>
+    <t>juan-adolfo-galeano</t>
+  </si>
+  <si>
+    <t>wilfried-gier</t>
+  </si>
+  <si>
+    <t>roua-hamila</t>
+  </si>
+  <si>
+    <t>fenshuo-hao</t>
+  </si>
+  <si>
+    <t>ricarda-heyde</t>
+  </si>
+  <si>
+    <t>marijorie-hoegen</t>
+  </si>
+  <si>
+    <t>charukeshi-joglekar</t>
+  </si>
+  <si>
+    <t>martina-josevski</t>
+  </si>
+  <si>
+    <t>yoga-kannan</t>
+  </si>
+  <si>
+    <t>ece-kara</t>
+  </si>
+  <si>
+    <t>benish-khan</t>
+  </si>
+  <si>
+    <t>asimenia-korompili</t>
+  </si>
+  <si>
+    <t>martin-kroning</t>
+  </si>
+  <si>
+    <t>arya-kumalajati</t>
+  </si>
+  <si>
+    <t>iris-koster</t>
+  </si>
+  <si>
+    <t>stefan-lankes</t>
+  </si>
+  <si>
+    <t>lenz-lukas</t>
+  </si>
+  <si>
+    <t>antonello-monti</t>
+  </si>
+  <si>
+    <t>marc-moritz</t>
+  </si>
+  <si>
+    <t>ghassen-nakti</t>
+  </si>
+  <si>
+    <t>zhiyu-pan</t>
+  </si>
+  <si>
+    <t>thanakorn-penthong</t>
+  </si>
+  <si>
+    <t>manuel-pitz</t>
+  </si>
+  <si>
+    <t>ferdinanda-ponci</t>
+  </si>
+  <si>
+    <t>simon-prein</t>
+  </si>
+  <si>
+    <t>lara-roth</t>
+  </si>
+  <si>
+    <t>ahmed-salawudeen</t>
+  </si>
+  <si>
+    <t>nagar-santu</t>
+  </si>
+  <si>
+    <t>riccardo-scalabrin</t>
+  </si>
+  <si>
+    <t>sebastian-schwarz</t>
+  </si>
+  <si>
+    <t>bettina-schafer</t>
+  </si>
+  <si>
+    <t>foroogh-sedighi</t>
+  </si>
+  <si>
+    <t>sarah-simon</t>
+  </si>
+  <si>
+    <t>emily-spies</t>
+  </si>
+  <si>
+    <t>ivelina-stoyanova</t>
+  </si>
+  <si>
+    <t>su-mon-tun</t>
+  </si>
+  <si>
+    <t>arian-van-megen</t>
+  </si>
+  <si>
+    <t>steffen-vogel</t>
+  </si>
+  <si>
+    <t>christian-vossel</t>
+  </si>
+  <si>
+    <t>felig-wege</t>
+  </si>
+  <si>
+    <t>katharina-wehrmeister</t>
+  </si>
+  <si>
+    <t>junke-yannik</t>
+  </si>
+  <si>
+    <t>arty-yavuzer</t>
+  </si>
+  <si>
+    <t>andres.acosta@eonerc.rwth-aachen.de</t>
   </si>
 </sst>
 </file>
@@ -650,7 +653,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -662,6 +665,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,10 +695,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -695,8 +707,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1002,10 +1016,15 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
@@ -1047,14 +1066,14 @@
       <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>170</v>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H2" s="1">
         <v>2</v>
@@ -1076,14 +1095,14 @@
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
+      <c r="E3" t="s">
+        <v>154</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1105,14 +1124,14 @@
       <c r="D4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>118</v>
+      <c r="E4" t="s">
+        <v>155</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H4" s="1">
         <v>2</v>
@@ -1134,14 +1153,14 @@
       <c r="D5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="1">
         <v>56</v>
@@ -1163,14 +1182,14 @@
       <c r="D6" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="H6" s="1">
         <v>79</v>
@@ -1192,14 +1211,14 @@
       <c r="D7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="H7" s="1">
         <v>24</v>
@@ -1221,14 +1240,14 @@
       <c r="D8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="1">
         <v>56</v>
@@ -1250,14 +1269,14 @@
       <c r="D9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>123</v>
+      <c r="E9" t="s">
+        <v>160</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -1279,14 +1298,14 @@
       <c r="D10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>124</v>
+      <c r="E10" t="s">
+        <v>161</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="H10" s="1">
         <v>47</v>
@@ -1308,14 +1327,14 @@
       <c r="D11" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>125</v>
+      <c r="E11" t="s">
+        <v>162</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
@@ -1337,14 +1356,14 @@
       <c r="D12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
+      <c r="E12" t="s">
+        <v>163</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
@@ -1366,14 +1385,14 @@
       <c r="D13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>127</v>
+      <c r="E13" t="s">
+        <v>164</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H13" s="1">
         <v>25</v>
@@ -1395,14 +1414,14 @@
       <c r="D14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>128</v>
+      <c r="E14" t="s">
+        <v>165</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1424,14 +1443,14 @@
       <c r="D15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>129</v>
+      <c r="E15" t="s">
+        <v>166</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
@@ -1453,14 +1472,14 @@
       <c r="D16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>130</v>
+      <c r="E16" t="s">
+        <v>167</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>180</v>
+        <v>126</v>
       </c>
       <c r="H16" s="1">
         <v>24</v>
@@ -1482,14 +1501,14 @@
       <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>131</v>
+      <c r="E17" t="s">
+        <v>168</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
@@ -1511,14 +1530,14 @@
       <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>132</v>
+      <c r="E18" t="s">
+        <v>169</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>181</v>
+        <v>127</v>
       </c>
       <c r="H18" s="1">
         <v>0</v>
@@ -1540,14 +1559,14 @@
       <c r="D19" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>133</v>
+      <c r="E19" t="s">
+        <v>170</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>182</v>
+        <v>128</v>
       </c>
       <c r="H19" s="1">
         <v>9</v>
@@ -1569,14 +1588,14 @@
       <c r="D20" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>134</v>
+      <c r="E20" t="s">
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H20" s="1">
         <v>0</v>
@@ -1598,14 +1617,14 @@
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>135</v>
+      <c r="E21" t="s">
+        <v>172</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>183</v>
+        <v>129</v>
       </c>
       <c r="H21" s="1">
         <v>49</v>
@@ -1627,14 +1646,14 @@
       <c r="D22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>136</v>
+      <c r="E22" t="s">
+        <v>173</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H22" s="1">
         <v>68</v>
@@ -1656,14 +1675,14 @@
       <c r="D23" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>137</v>
+      <c r="E23" t="s">
+        <v>174</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>184</v>
+        <v>130</v>
       </c>
       <c r="H23" s="1">
         <v>60</v>
@@ -1685,14 +1704,14 @@
       <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>138</v>
+      <c r="E24" t="s">
+        <v>175</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>185</v>
+        <v>131</v>
       </c>
       <c r="H24" s="1">
         <v>2</v>
@@ -1714,14 +1733,14 @@
       <c r="D25" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>139</v>
+      <c r="E25" t="s">
+        <v>176</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H25" s="1">
         <v>3</v>
@@ -1743,14 +1762,14 @@
       <c r="D26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>140</v>
+      <c r="E26" t="s">
+        <v>177</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H26" s="1">
         <v>8</v>
@@ -1772,14 +1791,14 @@
       <c r="D27" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>141</v>
+      <c r="E27" t="s">
+        <v>178</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="H27" s="1">
         <v>14</v>
@@ -1801,14 +1820,14 @@
       <c r="D28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>142</v>
+      <c r="E28" t="s">
+        <v>179</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>187</v>
+        <v>133</v>
       </c>
       <c r="H28" s="1">
         <v>56</v>
@@ -1830,14 +1849,14 @@
       <c r="D29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>143</v>
+      <c r="E29" t="s">
+        <v>180</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>188</v>
+        <v>134</v>
       </c>
       <c r="H29" s="1">
         <v>30</v>
@@ -1859,14 +1878,14 @@
       <c r="D30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>144</v>
+      <c r="E30" t="s">
+        <v>181</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>189</v>
+        <v>135</v>
       </c>
       <c r="H30" s="1">
         <v>1</v>
@@ -1888,14 +1907,14 @@
       <c r="D31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>145</v>
+      <c r="E31" t="s">
+        <v>182</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>190</v>
+        <v>136</v>
       </c>
       <c r="H31" s="1">
         <v>0</v>
@@ -1917,14 +1936,14 @@
       <c r="D32" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>146</v>
+      <c r="E32" t="s">
+        <v>183</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>191</v>
+        <v>137</v>
       </c>
       <c r="H32" s="1">
         <v>0</v>
@@ -1946,14 +1965,14 @@
       <c r="D33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>147</v>
+      <c r="E33" t="s">
+        <v>184</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="H33" s="1">
         <v>9</v>
@@ -1975,14 +1994,14 @@
       <c r="D34" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>148</v>
+      <c r="E34" t="s">
+        <v>185</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>172</v>
+        <v>118</v>
       </c>
       <c r="H34" s="1">
         <v>11</v>
@@ -2004,14 +2023,14 @@
       <c r="D35" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>149</v>
+      <c r="E35" t="s">
+        <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -2033,14 +2052,14 @@
       <c r="D36" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>150</v>
+      <c r="E36" t="s">
+        <v>187</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -2062,14 +2081,14 @@
       <c r="D37" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>151</v>
+      <c r="E37" t="s">
+        <v>188</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="H37" s="1">
         <v>51</v>
@@ -2091,14 +2110,14 @@
       <c r="D38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>152</v>
+      <c r="E38" t="s">
+        <v>189</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H38" s="1">
         <v>3</v>
@@ -2120,14 +2139,14 @@
       <c r="D39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>153</v>
+      <c r="E39" t="s">
+        <v>190</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="H39" s="1">
         <v>5</v>
@@ -2149,14 +2168,14 @@
       <c r="D40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>154</v>
+      <c r="E40" t="s">
+        <v>191</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="H40" s="1">
         <v>3</v>
@@ -2178,14 +2197,14 @@
       <c r="D41" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>155</v>
+      <c r="E41" t="s">
+        <v>192</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H41" s="1">
         <v>89</v>
@@ -2207,14 +2226,14 @@
       <c r="D42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>156</v>
+      <c r="E42" t="s">
+        <v>193</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H42" s="1">
         <v>0</v>
@@ -2236,14 +2255,14 @@
       <c r="D43" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>157</v>
+      <c r="E43" t="s">
+        <v>194</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>198</v>
+        <v>144</v>
       </c>
       <c r="H43" s="1">
         <v>2</v>
@@ -2265,14 +2284,14 @@
       <c r="D44" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>158</v>
+      <c r="E44" t="s">
+        <v>195</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>199</v>
+        <v>145</v>
       </c>
       <c r="H44" s="1">
         <v>10</v>
@@ -2294,14 +2313,14 @@
       <c r="D45" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>159</v>
+      <c r="E45" t="s">
+        <v>196</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H45" s="1">
         <v>1</v>
@@ -2323,14 +2342,14 @@
       <c r="D46" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>160</v>
+      <c r="E46" t="s">
+        <v>197</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="H46" s="1">
         <v>11</v>
@@ -2352,14 +2371,14 @@
       <c r="D47" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>161</v>
+      <c r="E47" t="s">
+        <v>198</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>201</v>
+        <v>147</v>
       </c>
       <c r="H47" s="1">
         <v>6</v>
@@ -2381,14 +2400,14 @@
       <c r="D48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>162</v>
+      <c r="E48" t="s">
+        <v>199</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="H48" s="1">
         <v>14</v>
@@ -2410,14 +2429,14 @@
       <c r="D49" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>163</v>
+      <c r="E49" t="s">
+        <v>200</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>203</v>
+        <v>149</v>
       </c>
       <c r="H49" s="1">
         <v>0</v>
@@ -2439,14 +2458,14 @@
       <c r="D50" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>164</v>
+      <c r="E50" t="s">
+        <v>201</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>204</v>
+        <v>150</v>
       </c>
       <c r="H50" s="1">
         <v>12</v>
@@ -2468,14 +2487,14 @@
       <c r="D51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>165</v>
+      <c r="E51" t="s">
+        <v>202</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H51" s="1">
         <v>6</v>
@@ -2497,14 +2516,14 @@
       <c r="D52" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>166</v>
+      <c r="E52" t="s">
+        <v>203</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="H52" s="1">
         <v>4</v>
@@ -2526,14 +2545,14 @@
       <c r="D53" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>167</v>
+      <c r="E53" t="s">
+        <v>204</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1">
         <v>4</v>
@@ -2555,14 +2574,14 @@
       <c r="D54" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>168</v>
+      <c r="E54" t="s">
+        <v>205</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>206</v>
+        <v>152</v>
       </c>
       <c r="H54" s="1">
         <v>8</v>
@@ -2584,14 +2603,14 @@
       <c r="D55" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>169</v>
+      <c r="E55" t="s">
+        <v>206</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>176</v>
+        <v>122</v>
       </c>
       <c r="H55" s="1">
         <v>0</v>
@@ -2601,6 +2620,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{AC004764-01B0-433E-AD9D-C3D2AB583413}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/acs_coffee_management/employees_input.xlsx
+++ b/acs_coffee_management/employees_input.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55865100-CF4D-4004-917E-FD506F429B54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="201">
   <si>
     <t>name</t>
   </si>
@@ -103,6 +97,9 @@
     <t>Khan, Benish</t>
   </si>
   <si>
+    <t>Kim, Sun</t>
+  </si>
+  <si>
     <t>Korompili, Asimenia</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
     <t>Salawudeen, Ahmed</t>
   </si>
   <si>
+    <t>Sangu, Nagar</t>
+  </si>
+  <si>
     <t>Scalabrin, Riccardo</t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Yannik, Jünke</t>
   </si>
   <si>
-    <t>Yavuzer, Arty</t>
+    <t>Yavuzer, Aytug</t>
   </si>
   <si>
     <t>acosta-andres</t>
@@ -262,6 +262,9 @@
     <t>benish-khan</t>
   </si>
   <si>
+    <t>sun-kim</t>
+  </si>
+  <si>
     <t>asimenia-korompili</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>ahmed-salawudeen</t>
   </si>
   <si>
+    <t>nagar-sangu</t>
+  </si>
+  <si>
     <t>riccardo-scalabrin</t>
   </si>
   <si>
@@ -343,254 +349,281 @@
     <t>christian-vossel</t>
   </si>
   <si>
+    <t>felix-wege</t>
+  </si>
+  <si>
     <t>katharina-wehrmeister</t>
   </si>
   <si>
     <t>junke-yannik</t>
   </si>
   <si>
-    <t>arty-yavuzer</t>
+    <t>aytug-yavuzer</t>
   </si>
   <si>
     <t>andres.acosta@eonerc.rwth-aachen.de</t>
   </si>
   <si>
+    <t>aahmadifar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>alexandra.bach@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>nbielders@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>rbielders@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>cesar.cazal@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
     <t>nan</t>
   </si>
   <si>
-    <t>0.60</t>
+    <t>niklas.eiling@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>charles.emehel@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>laura.fuentes-grau@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>hamza.gabbar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>adolfo.galeano@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>wilfried.gier@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ricarda.heyde@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>marjorie.hoegen@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>yoga.kannan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ece.kara@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>benish.khan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>akorompili@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>martin.kroening@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ikoester@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>slankes@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>lukas.lenz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>amonti@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>marc.moritz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ghassen.nakti@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>zhiyu.pan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>thanakorn.penthong@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>manuel.pitz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>post_mod@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>lara.roth@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>sangu.nagar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>sebastian.schwarz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>bschaefer@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>istoyanova@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>su.tun@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>fwege@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>katharina.wehrmeister@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>6.30</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>46.50</t>
+  </si>
+  <si>
+    <t>65.40</t>
+  </si>
+  <si>
+    <t>-0.84</t>
+  </si>
+  <si>
+    <t>21.60</t>
+  </si>
+  <si>
+    <t>22.50</t>
+  </si>
+  <si>
+    <t>14.50</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>5.70</t>
+  </si>
+  <si>
+    <t>8.60</t>
+  </si>
+  <si>
+    <t>9.40</t>
+  </si>
+  <si>
+    <t>18.90</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>3.40</t>
   </si>
   <si>
     <t>0.90</t>
   </si>
   <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>19.20</t>
-  </si>
-  <si>
-    <t>-25.74</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>12.60</t>
-  </si>
-  <si>
-    <t>7.40</t>
-  </si>
-  <si>
-    <t>-10.10</t>
+    <t>28.70</t>
+  </si>
+  <si>
+    <t>20.40</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>18.10</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>14.55</t>
+  </si>
+  <si>
+    <t>57.30</t>
+  </si>
+  <si>
+    <t>80.25</t>
+  </si>
+  <si>
+    <t>22.20</t>
+  </si>
+  <si>
+    <t>3.60</t>
+  </si>
+  <si>
+    <t>1.40</t>
+  </si>
+  <si>
+    <t>10.30</t>
+  </si>
+  <si>
+    <t>23.10</t>
+  </si>
+  <si>
+    <t>13.10</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>35.10</t>
+  </si>
+  <si>
+    <t>4.80</t>
+  </si>
+  <si>
+    <t>-3.60</t>
+  </si>
+  <si>
+    <t>9.60</t>
   </si>
   <si>
     <t>0.30</t>
   </si>
   <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>2.90</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>25.50</t>
-  </si>
-  <si>
-    <t>46.65</t>
-  </si>
-  <si>
-    <t>7.80</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.40</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>8.50</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
-    <t>-5.50</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>-4.20</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>0.75</t>
-  </si>
-  <si>
-    <t>1.35</t>
-  </si>
-  <si>
-    <t>-2.25</t>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>5.25</t>
   </si>
   <si>
     <t>2.35</t>
   </si>
   <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>-22.00</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
-    <t>aahmadifar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>alexandra.bach@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>nbielders@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>rbielders@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>cesar.cazal@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>niklas.eiling@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>charles.emehel@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>laura.fuentes-grau@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>hamza.gabbar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>adolfo.galeano@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>wilfried.gier@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>ricarda.heyde@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>marjorie.hoegen@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>yoga.kannan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>ece.kara@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>benish.khan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>akorompili@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>martin.kroening@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>ikoester@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>slankes@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>lukas.lenz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>amonti@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>marc.moritz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>ghassen.nakti@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>zhiyu.pan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>thanakorn.penthong@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>manuel.pitz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>post_mod@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>lara.roth@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>sangu.nagar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>sebastian.schwarz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>bschaefer@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>istoyanova@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>su.tun@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>fwege@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>katharina.wehrmeister@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Sangu, Nagar</t>
-  </si>
-  <si>
-    <t>nagar-sangu</t>
-  </si>
-  <si>
-    <t>felix-wege</t>
+    <t>6.40</t>
+  </si>
+  <si>
+    <t>-4.90</t>
+  </si>
+  <si>
+    <t>5.65</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,14 +635,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,39 +672,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -717,7 +730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -751,7 +764,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -786,10 +798,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -962,21 +973,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="30.85546875" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
-    <col min="4" max="4" width="45.28515625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1001,19 +1005,19 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
       <c r="F2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1021,19 +1025,19 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1041,19 +1045,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1061,19 +1065,19 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>150</v>
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="F5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1081,19 +1085,19 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>119</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="F6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1101,19 +1105,19 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>152</v>
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="F7">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1121,19 +1125,19 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="F8">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1141,19 +1145,19 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>153</v>
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>122</v>
       </c>
       <c r="E9" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1161,19 +1165,19 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>154</v>
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>123</v>
       </c>
       <c r="E10" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
       <c r="F10">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1181,19 +1185,19 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>155</v>
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1201,19 +1205,19 @@
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>156</v>
+        <v>70</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1221,19 +1225,19 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>157</v>
+        <v>71</v>
+      </c>
+      <c r="D13" t="s">
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F13">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1241,19 +1245,19 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>158</v>
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>166</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1261,19 +1265,19 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1281,19 +1285,19 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="F16">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1301,19 +1305,19 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>159</v>
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>128</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="F17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1321,19 +1325,19 @@
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>160</v>
+        <v>76</v>
+      </c>
+      <c r="D18" t="s">
+        <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1341,19 +1345,19 @@
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
       <c r="F19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1361,19 +1365,19 @@
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1381,19 +1385,19 @@
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>161</v>
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="F21">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1401,19 +1405,19 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>162</v>
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="F22">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1421,19 +1425,19 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>163</v>
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="F23">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1441,19 +1445,19 @@
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>164</v>
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>175</v>
       </c>
       <c r="F24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1461,19 +1465,19 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>165</v>
+        <v>83</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>117</v>
+        <v>176</v>
       </c>
       <c r="F25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1481,19 +1485,19 @@
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E26" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="F26">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1501,19 +1505,19 @@
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>166</v>
+        <v>85</v>
+      </c>
+      <c r="D27" t="s">
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="F27">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1521,19 +1525,19 @@
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>167</v>
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>135</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="F28">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1541,19 +1545,19 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>168</v>
+        <v>87</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>179</v>
       </c>
       <c r="F29">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1561,19 +1565,19 @@
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>169</v>
+        <v>88</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>180</v>
       </c>
       <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1581,19 +1585,19 @@
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>170</v>
+        <v>89</v>
+      </c>
+      <c r="D31" t="s">
+        <v>138</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1601,19 +1605,19 @@
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>171</v>
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>139</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1621,19 +1625,19 @@
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>172</v>
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>140</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>183</v>
       </c>
       <c r="F33">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1641,19 +1645,19 @@
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>173</v>
+        <v>92</v>
+      </c>
+      <c r="D34" t="s">
+        <v>141</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="F34">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1661,19 +1665,19 @@
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>174</v>
+        <v>93</v>
+      </c>
+      <c r="D35" t="s">
+        <v>142</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="F35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1681,19 +1685,19 @@
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>175</v>
+        <v>94</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1701,19 +1705,19 @@
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>185</v>
       </c>
       <c r="F37">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1721,19 +1725,19 @@
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>176</v>
+        <v>96</v>
+      </c>
+      <c r="D38" t="s">
+        <v>121</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>186</v>
       </c>
       <c r="F38">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1741,379 +1745,359 @@
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>172</v>
       </c>
       <c r="F39">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>177</v>
+        <v>98</v>
+      </c>
+      <c r="D40" t="s">
+        <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>187</v>
       </c>
       <c r="F40">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D41" t="s">
-        <v>111</v>
+        <v>146</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="F41">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
+      </c>
+      <c r="D42" t="s">
+        <v>121</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
+      </c>
+      <c r="D43" t="s">
+        <v>147</v>
       </c>
       <c r="E43" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="F43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="F44">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>192</v>
       </c>
       <c r="F45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E46" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="F46">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>180</v>
+        <v>105</v>
+      </c>
+      <c r="D47" t="s">
+        <v>121</v>
       </c>
       <c r="E47" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="F47">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>181</v>
+        <v>106</v>
+      </c>
+      <c r="D48" t="s">
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="F48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="F50">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>198</v>
       </c>
       <c r="F51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>187</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>182</v>
+        <v>110</v>
+      </c>
+      <c r="D52" t="s">
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="F52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>183</v>
+        <v>111</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="F53">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="E54" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="F54">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>184</v>
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
       </c>
       <c r="E55" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" t="s">
+        <v>164</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{D0C5231F-FC35-4690-826F-FDB86D98C905}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{61385D70-578C-459E-AC4C-AAC5A17D1607}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{D18B8471-EB5E-43DB-8813-44F818014A05}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{A8044CAF-2398-4445-A8F0-8532B699DF1E}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{8554F461-5DE7-4D46-A538-88FCBAF2B676}"/>
-    <hyperlink ref="D7" r:id="rId6" display="mailto:cesar.cazal@eonerc.rwth-aachen.de" xr:uid="{78393E8A-015E-4CCC-8E8C-49FAE62F6ABB}"/>
-    <hyperlink ref="D9" r:id="rId7" xr:uid="{3E1BED19-4637-49FA-8655-B5C871F5CB29}"/>
-    <hyperlink ref="D10" r:id="rId8" display="mailto:charles.emehel@eonerc.rwth-aachen.de" xr:uid="{F39A44FF-CC09-4109-BCA6-0CCDE6E5EE6B}"/>
-    <hyperlink ref="D11" r:id="rId9" display="mailto:laura.fuentes-grau@eonerc.rwth-aachen.de" xr:uid="{DE0EE2A5-F642-4CA3-ADA8-643F9D72DBB6}"/>
-    <hyperlink ref="D12" r:id="rId10" display="mailto:hamza.gabbar@eonerc.rwth-aachen.de" xr:uid="{CDBE7BE3-B7AD-4940-A6C8-E0596F061B03}"/>
-    <hyperlink ref="D13" r:id="rId11" display="mailto:adolfo.galeano@eonerc.rwth-aachen.de" xr:uid="{D1C94F44-A9E5-4049-AB29-E3072CDD57BC}"/>
-    <hyperlink ref="D14" r:id="rId12" display="mailto:wilfried.gier@eonerc.rwth-aachen.de" xr:uid="{384260FB-260F-4CE5-9C02-CFCFEB03825C}"/>
-    <hyperlink ref="D17" r:id="rId13" display="mailto:ricarda.heyde@eonerc.rwth-aachen.de" xr:uid="{A3FC0480-3565-406F-80B3-9DF27080E243}"/>
-    <hyperlink ref="D18" r:id="rId14" display="mailto:marjorie.hoegen@eonerc.rwth-aachen.de" xr:uid="{178FC957-2640-493E-93D7-E572E7A211E8}"/>
-    <hyperlink ref="D21" r:id="rId15" display="mailto:yoga.kannan@eonerc.rwth-aachen.de" xr:uid="{D41A2607-71A3-4681-884F-A0444B453AC2}"/>
-    <hyperlink ref="D22" r:id="rId16" display="mailto:ece.kara@eonerc.rwth-aachen.de" xr:uid="{B9B0D719-7153-446F-BF48-20B397A9839F}"/>
-    <hyperlink ref="D23" r:id="rId17" display="mailto:benish.khan@eonerc.rwth-aachen.de" xr:uid="{DD220357-CBA0-4D3D-9CF4-1D18CC669FC0}"/>
-    <hyperlink ref="D24" r:id="rId18" display="mailto:akorompili@eonerc.rwth-aachen.de" xr:uid="{52448BD0-F8A2-44C4-8359-2B862229DF75}"/>
-    <hyperlink ref="D25" r:id="rId19" display="mailto:martin.kroening@eonerc.rwth-aachen.de" xr:uid="{27E071CF-CC24-4781-B0BB-59E62250AE34}"/>
-    <hyperlink ref="D27" r:id="rId20" display="mailto:ikoester@eonerc.rwth-aachen.de" xr:uid="{7F8F45A5-A3CE-49AA-80D2-930B49DF2C29}"/>
-    <hyperlink ref="D28" r:id="rId21" display="mailto:slankes@eonerc.rwth-aachen.de" xr:uid="{AE88D562-DAC6-4C2A-9D8A-1C0CF1C8B904}"/>
-    <hyperlink ref="D29" r:id="rId22" display="mailto:lukas.lenz@eonerc.rwth-aachen.de" xr:uid="{A313525E-3B18-4BF2-A8D1-D49AD4761A77}"/>
-    <hyperlink ref="D30" r:id="rId23" display="mailto:amonti@eonerc.rwth-aachen.de" xr:uid="{A5A64F29-19E0-4E3E-9D23-40EA1004ADB0}"/>
-    <hyperlink ref="D31" r:id="rId24" display="mailto:marc.moritz@eonerc.rwth-aachen.de" xr:uid="{C1D94054-FAEA-4049-B9CD-F17B64DC5D47}"/>
-    <hyperlink ref="D32" r:id="rId25" display="mailto:ghassen.nakti@eonerc.rwth-aachen.de" xr:uid="{941DAC05-3AA7-4EA2-B5C6-8845DADDC3A6}"/>
-    <hyperlink ref="D33" r:id="rId26" display="mailto:zhiyu.pan@eonerc.rwth-aachen.de" xr:uid="{9E7080D1-C7F5-46B4-AF87-7FD1AAD081E7}"/>
-    <hyperlink ref="D34" r:id="rId27" xr:uid="{D28FE2B3-580E-4573-A6F7-07AC746205A0}"/>
-    <hyperlink ref="D35" r:id="rId28" xr:uid="{D005160E-A79B-473E-A7F2-9F5D034BFC4C}"/>
-    <hyperlink ref="D36" r:id="rId29" xr:uid="{22A60E63-579D-4B36-BC3F-FD0591335359}"/>
-    <hyperlink ref="D38" r:id="rId30" xr:uid="{EE322033-D1BE-4937-A378-D1D217969B67}"/>
-    <hyperlink ref="D40" r:id="rId31" xr:uid="{88CE7387-4014-46B0-BA82-B92BD1DC6279}"/>
-    <hyperlink ref="D42" r:id="rId32" xr:uid="{A557311C-52BA-44F4-B846-092AD23E6249}"/>
-    <hyperlink ref="D43" r:id="rId33" xr:uid="{DA87C891-A7DD-4DB4-B6B8-A377BD36506E}"/>
-    <hyperlink ref="D47" r:id="rId34" xr:uid="{BED3F954-908C-42DA-B8BC-DA043016E6B0}"/>
-    <hyperlink ref="D48" r:id="rId35" xr:uid="{2C64DE2D-9B76-4411-AAEC-C6AE93D80219}"/>
-    <hyperlink ref="D52" r:id="rId36" xr:uid="{2D12C39D-9A83-4C4F-9133-D301A012F349}"/>
-    <hyperlink ref="D53" r:id="rId37" xr:uid="{5B3A434C-05B3-4D12-8965-81A1EDEC8D5C}"/>
-    <hyperlink ref="D55" r:id="rId38" xr:uid="{D56D9C55-E80E-4EB0-A8EC-E45136E58B3E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/acs_coffee_management/employees_input.xlsx
+++ b/acs_coffee_management/employees_input.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eonakku\home\acs\lle\Desktop\Lenz\ACS Coffee\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF527E5-D1E5-4F5C-9C15-FC7113FD09CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495EFE51-05CE-4728-BE87-65775FE8E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="243">
   <si>
     <t>name</t>
   </si>
@@ -40,611 +40,722 @@
     <t>Acosta, Andres</t>
   </si>
   <si>
+    <t>Ahmadifar, Amir</t>
+  </si>
+  <si>
+    <t>Bach, Alexandra</t>
+  </si>
+  <si>
+    <t>Bielders, Nicole</t>
+  </si>
+  <si>
+    <t>Bielders, Robert</t>
+  </si>
+  <si>
+    <t>Cazal, Cesar</t>
+  </si>
+  <si>
+    <t>Chen, Kenny</t>
+  </si>
+  <si>
+    <t>Eiling, Niklas</t>
+  </si>
+  <si>
+    <t>Emehel, Charles</t>
+  </si>
+  <si>
+    <t>Fuentes Grau, Laura</t>
+  </si>
+  <si>
+    <t>Gabbar, Hamza</t>
+  </si>
+  <si>
+    <t>Galeano, Juan Adolfo</t>
+  </si>
+  <si>
+    <t>Gier, Wilfried</t>
+  </si>
+  <si>
+    <t>Hamila, Roua</t>
+  </si>
+  <si>
+    <t>Hao, Fenshuo</t>
+  </si>
+  <si>
+    <t>Heyde, Ricarda</t>
+  </si>
+  <si>
+    <t>Hoegen, Marjorie</t>
+  </si>
+  <si>
+    <t>Joglekar, Charukeshi</t>
+  </si>
+  <si>
+    <t>Josevski, Martina</t>
+  </si>
+  <si>
+    <t>Kannan, Yoga</t>
+  </si>
+  <si>
+    <t>Kara, Ece</t>
+  </si>
+  <si>
+    <t>Khan, Benish</t>
+  </si>
+  <si>
+    <t>Kim, Sun</t>
+  </si>
+  <si>
+    <t>Korompili, Asimenia</t>
+  </si>
+  <si>
+    <t>Kröning, Martin</t>
+  </si>
+  <si>
+    <t>Kumalajati, Arya</t>
+  </si>
+  <si>
+    <t>Köster, Iris</t>
+  </si>
+  <si>
+    <t>Lankes, Stefan</t>
+  </si>
+  <si>
+    <t>Lenz, Lukas</t>
+  </si>
+  <si>
+    <t>Monti, Antonello</t>
+  </si>
+  <si>
+    <t>Moritz, Marc</t>
+  </si>
+  <si>
+    <t>Nakti, Ghassen</t>
+  </si>
+  <si>
+    <t>Nakti, Youssef</t>
+  </si>
+  <si>
+    <t>Pan, Zhiyu</t>
+  </si>
+  <si>
+    <t>Penthong, Thanakorn</t>
+  </si>
+  <si>
+    <t>Pitz, Manuel</t>
+  </si>
+  <si>
+    <t>Ponci, Ferdinanda</t>
+  </si>
+  <si>
+    <t>Prein, Simon</t>
+  </si>
+  <si>
+    <t>Roth, Lara</t>
+  </si>
+  <si>
+    <t>Salawudeen, Ahmed</t>
+  </si>
+  <si>
+    <t>Sangu, Nagar</t>
+  </si>
+  <si>
+    <t>Scalabrin, Riccardo</t>
+  </si>
+  <si>
+    <t>Schwarz, Sebastian</t>
+  </si>
+  <si>
+    <t>Schäfer, Bettina</t>
+  </si>
+  <si>
+    <t>Sedighi, Foroogh</t>
+  </si>
+  <si>
+    <t>Simon, Sarah</t>
+  </si>
+  <si>
+    <t>Spies, Emily</t>
+  </si>
+  <si>
+    <t>Stoyanova, Ivelina</t>
+  </si>
+  <si>
+    <t>Taeyoung, Kim</t>
+  </si>
+  <si>
+    <t>Tun, Su Mon</t>
+  </si>
+  <si>
+    <t>Van Megen, Arian</t>
+  </si>
+  <si>
+    <t>Vogel, Steffen</t>
+  </si>
+  <si>
+    <t>Vossel, Christian</t>
+  </si>
+  <si>
+    <t>Wege, Felix</t>
+  </si>
+  <si>
+    <t>Wehrmeister, Katharina</t>
+  </si>
+  <si>
+    <t>Yannik, Jünke</t>
+  </si>
+  <si>
+    <t>Yavuzer, Aytug</t>
+  </si>
+  <si>
     <t>acosta-andres</t>
   </si>
   <si>
+    <t>ahmadifar-amir</t>
+  </si>
+  <si>
+    <t>alexandra-bach</t>
+  </si>
+  <si>
+    <t>nicole-bielders</t>
+  </si>
+  <si>
+    <t>robert-bielders</t>
+  </si>
+  <si>
+    <t>cesar-cazal</t>
+  </si>
+  <si>
+    <t>kenny-chen</t>
+  </si>
+  <si>
+    <t>niklas-eiling</t>
+  </si>
+  <si>
+    <t>charles-ehemel</t>
+  </si>
+  <si>
+    <t>laura-fuentes-grau</t>
+  </si>
+  <si>
+    <t>hamza-gabbar</t>
+  </si>
+  <si>
+    <t>juan-adolfo-galeano</t>
+  </si>
+  <si>
+    <t>wilfried-gier</t>
+  </si>
+  <si>
+    <t>roua-hamila</t>
+  </si>
+  <si>
+    <t>fenshuo-hao</t>
+  </si>
+  <si>
+    <t>ricarda-heyde</t>
+  </si>
+  <si>
+    <t>marijorie-hoegen</t>
+  </si>
+  <si>
+    <t>charukeshi-joglekar</t>
+  </si>
+  <si>
+    <t>martina-josevski</t>
+  </si>
+  <si>
+    <t>yoga-kannan</t>
+  </si>
+  <si>
+    <t>ece-kara</t>
+  </si>
+  <si>
+    <t>benish-khan</t>
+  </si>
+  <si>
+    <t>sun-kim</t>
+  </si>
+  <si>
+    <t>asimenia-korompili</t>
+  </si>
+  <si>
+    <t>martin-kroning</t>
+  </si>
+  <si>
+    <t>arya-kumalajati</t>
+  </si>
+  <si>
+    <t>iris-koster</t>
+  </si>
+  <si>
+    <t>stefan-lankes</t>
+  </si>
+  <si>
+    <t>lenz-lukas</t>
+  </si>
+  <si>
+    <t>antonello-monti</t>
+  </si>
+  <si>
+    <t>marc-moritz</t>
+  </si>
+  <si>
+    <t>ghassen-nakti</t>
+  </si>
+  <si>
+    <t>youssef-nakti</t>
+  </si>
+  <si>
+    <t>zhiyu-pan</t>
+  </si>
+  <si>
+    <t>thanakorn-penthong</t>
+  </si>
+  <si>
+    <t>manuel-pitz</t>
+  </si>
+  <si>
+    <t>ferdinanda-ponci</t>
+  </si>
+  <si>
+    <t>simon-prein</t>
+  </si>
+  <si>
+    <t>lara-roth</t>
+  </si>
+  <si>
+    <t>ahmed-salawudeen</t>
+  </si>
+  <si>
+    <t>nagar-sangu</t>
+  </si>
+  <si>
+    <t>riccardo-scalabrin</t>
+  </si>
+  <si>
+    <t>sebastian-schwarz</t>
+  </si>
+  <si>
+    <t>bettina-schafer</t>
+  </si>
+  <si>
+    <t>foroogh-sedighi</t>
+  </si>
+  <si>
+    <t>sarah-simon</t>
+  </si>
+  <si>
+    <t>emily-spies</t>
+  </si>
+  <si>
+    <t>ivelina-stoyanova</t>
+  </si>
+  <si>
+    <t>kim-taeyoung</t>
+  </si>
+  <si>
+    <t>su-mon-tun</t>
+  </si>
+  <si>
+    <t>arian-van-megen</t>
+  </si>
+  <si>
+    <t>steffen-vogel</t>
+  </si>
+  <si>
+    <t>christian-vossel</t>
+  </si>
+  <si>
+    <t>felix-wege</t>
+  </si>
+  <si>
+    <t>katharina-wehrmeister</t>
+  </si>
+  <si>
+    <t>junke-yannik</t>
+  </si>
+  <si>
+    <t>aytug-yavuzer</t>
+  </si>
+  <si>
     <t>andres.acosta@eonerc.rwth-aachen.de</t>
   </si>
   <si>
+    <t>aahmadifar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>alexandra.bach@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>nbielders@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>rbielders@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>cesar.cazal@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>niklas.eiling@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>charles.emehel@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>laura.fuentes-grau@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>hamza.gabbar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>adolfo.galeano@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>wilfried.gier@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>fengshuo.hao@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ricarda.heyde@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>marjorie.hoegen@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>yoga.kannan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ece.kara@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>benish.khan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>sun.kim@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>akorompili@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>martin.kroening@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ikoester@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>slankes@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>lukas.lenz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>amonti@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>marc.moritz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>ghassen.nakti@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>youssef.nakti@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>zhiyu.pan@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>thanakorn.penthong@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>manuel.pitz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>fponci@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>lara.roth@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>sangu.nagar@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>sebastian.schwarz@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>bschaefer@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>foroogh.sedighi@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>istoyanova@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>taeyoung.kim@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>su.tun@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>fwege@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>katharina.wehrmeister@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>5.40</t>
+  </si>
+  <si>
+    <t>1.20</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>9.15</t>
+  </si>
+  <si>
+    <t>16.26</t>
+  </si>
+  <si>
+    <t>7.35</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>24.30</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>Ahmadifar, Amir</t>
-  </si>
-  <si>
-    <t>ahmadifar-amir</t>
-  </si>
-  <si>
-    <t>aahmadifar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>Bach, Alexandra</t>
-  </si>
-  <si>
-    <t>alexandra-bach</t>
-  </si>
-  <si>
-    <t>alexandra.bach@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>Bielders, Nicole</t>
-  </si>
-  <si>
-    <t>nicole-bielders</t>
-  </si>
-  <si>
-    <t>nbielders@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>18.20</t>
-  </si>
-  <si>
-    <t>Bielders, Robert</t>
-  </si>
-  <si>
-    <t>robert-bielders</t>
-  </si>
-  <si>
-    <t>rbielders@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>-16.95</t>
-  </si>
-  <si>
-    <t>Cazal, Cesar</t>
-  </si>
-  <si>
-    <t>cesar-cazal</t>
-  </si>
-  <si>
-    <t>cesar.cazal@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>-0.84</t>
-  </si>
-  <si>
-    <t>Chen, Kenny</t>
-  </si>
-  <si>
-    <t>kenny-chen</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>Eiling, Niklas</t>
-  </si>
-  <si>
-    <t>niklas-eiling</t>
-  </si>
-  <si>
-    <t>niklas.eiling@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>39.30</t>
-  </si>
-  <si>
-    <t>Emehel, Charles</t>
-  </si>
-  <si>
-    <t>charles-ehemel</t>
-  </si>
-  <si>
-    <t>charles.emehel@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>Fuentes Grau, Laura</t>
-  </si>
-  <si>
-    <t>laura-fuentes-grau</t>
-  </si>
-  <si>
-    <t>laura.fuentes-grau@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>14.40</t>
-  </si>
-  <si>
-    <t>Gabbar, Hamza</t>
-  </si>
-  <si>
-    <t>hamza-gabbar</t>
-  </si>
-  <si>
-    <t>hamza.gabbar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Galeano, Juan Adolfo</t>
-  </si>
-  <si>
-    <t>juan-adolfo-galeano</t>
-  </si>
-  <si>
-    <t>adolfo.galeano@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Gier, Wilfried</t>
-  </si>
-  <si>
-    <t>wilfried-gier</t>
-  </si>
-  <si>
-    <t>wilfried.gier@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Hamila, Roua</t>
-  </si>
-  <si>
-    <t>roua-hamila</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>Hao, Fenshuo</t>
-  </si>
-  <si>
-    <t>fenshuo-hao</t>
-  </si>
-  <si>
-    <t>fengshuo.hao@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>-17.50</t>
-  </si>
-  <si>
-    <t>Heyde, Ricarda</t>
-  </si>
-  <si>
-    <t>ricarda-heyde</t>
-  </si>
-  <si>
-    <t>ricarda.heyde@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Hoegen, Marjorie</t>
-  </si>
-  <si>
-    <t>marijorie-hoegen</t>
-  </si>
-  <si>
-    <t>marjorie.hoegen@eonerc.rwth-aachen.de</t>
+    <t>8.10</t>
+  </si>
+  <si>
+    <t>-10.90</t>
+  </si>
+  <si>
+    <t>21.30</t>
   </si>
   <si>
     <t>1.50</t>
   </si>
   <si>
-    <t>Joglekar, Charukeshi</t>
-  </si>
-  <si>
-    <t>charukeshi-joglekar</t>
-  </si>
-  <si>
     <t>0.70</t>
   </si>
   <si>
-    <t>Josevski, Martina</t>
-  </si>
-  <si>
-    <t>martina-josevski</t>
-  </si>
-  <si>
     <t>1.25</t>
   </si>
   <si>
-    <t>Kannan, Yoga</t>
-  </si>
-  <si>
-    <t>yoga-kannan</t>
-  </si>
-  <si>
-    <t>yoga.kannan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>21.20</t>
-  </si>
-  <si>
-    <t>Kara, Ece</t>
-  </si>
-  <si>
-    <t>ece-kara</t>
-  </si>
-  <si>
-    <t>ece.kara@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Khan, Benish</t>
-  </si>
-  <si>
-    <t>benish-khan</t>
-  </si>
-  <si>
-    <t>benish.khan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>Kim, Sun</t>
-  </si>
-  <si>
-    <t>sun-kim</t>
-  </si>
-  <si>
-    <t>sun.kim@eonerc.rwth-aachen.de</t>
+    <t>29.00</t>
+  </si>
+  <si>
+    <t>2.40</t>
   </si>
   <si>
     <t>2.10</t>
   </si>
   <si>
-    <t>Korompili, Asimenia</t>
-  </si>
-  <si>
-    <t>asimenia-korompili</t>
-  </si>
-  <si>
-    <t>akorompili@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
     <t>17.50</t>
   </si>
   <si>
-    <t>Kröning, Martin</t>
-  </si>
-  <si>
-    <t>martin-kroning</t>
-  </si>
-  <si>
-    <t>martin.kroening@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Kumalajati, Arya</t>
-  </si>
-  <si>
-    <t>arya-kumalajati</t>
-  </si>
-  <si>
     <t>0.25</t>
   </si>
   <si>
-    <t>Köster, Iris</t>
-  </si>
-  <si>
-    <t>iris-koster</t>
-  </si>
-  <si>
-    <t>ikoester@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
     <t>13.05</t>
   </si>
   <si>
-    <t>Lankes, Stefan</t>
-  </si>
-  <si>
-    <t>stefan-lankes</t>
-  </si>
-  <si>
-    <t>slankes@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>10.80</t>
-  </si>
-  <si>
-    <t>Lenz, Lukas</t>
-  </si>
-  <si>
-    <t>lenz-lukas</t>
-  </si>
-  <si>
-    <t>lukas.lenz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>24.90</t>
-  </si>
-  <si>
-    <t>Monti, Antonello</t>
-  </si>
-  <si>
-    <t>antonello-monti</t>
-  </si>
-  <si>
-    <t>amonti@eonerc.rwth-aachen.de</t>
+    <t>26.10</t>
+  </si>
+  <si>
+    <t>40.20</t>
+  </si>
+  <si>
+    <t>27.90</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>11.40</t>
+  </si>
+  <si>
+    <t>67.90</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>8.35</t>
+  </si>
+  <si>
+    <t>3.90</t>
+  </si>
+  <si>
+    <t>1.75</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>10.50</t>
+  </si>
+  <si>
+    <t>-4.20</t>
+  </si>
+  <si>
+    <t>5.10</t>
+  </si>
+  <si>
+    <t>22.80</t>
+  </si>
+  <si>
+    <t>4.05</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>6.15</t>
+  </si>
+  <si>
+    <t>6.05</t>
+  </si>
+  <si>
+    <t>6.65</t>
+  </si>
+  <si>
+    <t>10.70</t>
   </si>
   <si>
     <t>20.10</t>
   </si>
   <si>
-    <t>Moritz, Marc</t>
-  </si>
-  <si>
-    <t>marc-moritz</t>
-  </si>
-  <si>
-    <t>marc.moritz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Nakti, Ghassen</t>
-  </si>
-  <si>
-    <t>ghassen-nakti</t>
-  </si>
-  <si>
-    <t>ghassen.nakti@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>Nakti, Youssef</t>
-  </si>
-  <si>
-    <t>youssef-nakti</t>
-  </si>
-  <si>
-    <t>youssef.nakti@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>Pan, Zhiyu</t>
-  </si>
-  <si>
-    <t>zhiyu-pan</t>
-  </si>
-  <si>
-    <t>zhiyu.pan@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Penthong, Thanakorn</t>
-  </si>
-  <si>
-    <t>thanakorn-penthong</t>
-  </si>
-  <si>
-    <t>thanakorn.penthong@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>9.30</t>
-  </si>
-  <si>
-    <t>Pitz, Manuel</t>
-  </si>
-  <si>
-    <t>manuel-pitz</t>
-  </si>
-  <si>
-    <t>manuel.pitz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>45.70</t>
-  </si>
-  <si>
-    <t>Ponci, Ferdinanda</t>
-  </si>
-  <si>
-    <t>ferdinanda-ponci</t>
-  </si>
-  <si>
-    <t>fponci@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>20.70</t>
-  </si>
-  <si>
-    <t>Prein, Simon</t>
-  </si>
-  <si>
-    <t>simon-prein</t>
-  </si>
-  <si>
-    <t>Roth, Lara</t>
-  </si>
-  <si>
-    <t>lara-roth</t>
-  </si>
-  <si>
-    <t>lara.roth@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Salawudeen, Ahmed</t>
-  </si>
-  <si>
-    <t>ahmed-salawudeen</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>Sangu, Nagar</t>
-  </si>
-  <si>
-    <t>nagar-sangu</t>
-  </si>
-  <si>
-    <t>sangu.nagar@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>Scalabrin, Riccardo</t>
-  </si>
-  <si>
-    <t>riccardo-scalabrin</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>Schwarz, Sebastian</t>
-  </si>
-  <si>
-    <t>sebastian-schwarz</t>
-  </si>
-  <si>
-    <t>sebastian.schwarz@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Schäfer, Bettina</t>
-  </si>
-  <si>
-    <t>bettina-schafer</t>
-  </si>
-  <si>
-    <t>bschaefer@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>-4.20</t>
-  </si>
-  <si>
-    <t>Sedighi, Foroogh</t>
-  </si>
-  <si>
-    <t>foroogh-sedighi</t>
-  </si>
-  <si>
-    <t>foroogh.sedighi@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Simon, Sarah</t>
-  </si>
-  <si>
-    <t>sarah-simon</t>
-  </si>
-  <si>
-    <t>Spies, Emily</t>
-  </si>
-  <si>
-    <t>emily-spies</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>Stoyanova, Ivelina</t>
-  </si>
-  <si>
-    <t>ivelina-stoyanova</t>
-  </si>
-  <si>
-    <t>istoyanova@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>1.95</t>
-  </si>
-  <si>
-    <t>Taeyoung, Kim</t>
-  </si>
-  <si>
-    <t>kim-taeyoung</t>
-  </si>
-  <si>
-    <t>taeyoung.kim@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>Tun, Su Mon</t>
-  </si>
-  <si>
-    <t>su-mon-tun</t>
-  </si>
-  <si>
-    <t>su.tun@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>4.65</t>
-  </si>
-  <si>
-    <t>Van Megen, Arian</t>
-  </si>
-  <si>
-    <t>arian-van-megen</t>
-  </si>
-  <si>
-    <t>3.35</t>
-  </si>
-  <si>
-    <t>Vogel, Steffen</t>
-  </si>
-  <si>
-    <t>steffen-vogel</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>Vossel, Christian</t>
-  </si>
-  <si>
-    <t>christian-vossel</t>
-  </si>
-  <si>
-    <t>8.00</t>
-  </si>
-  <si>
-    <t>Wege, Felix</t>
-  </si>
-  <si>
-    <t>felix-wege</t>
-  </si>
-  <si>
-    <t>fwege@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Wehrmeister, Katharina</t>
-  </si>
-  <si>
-    <t>katharina-wehrmeister</t>
-  </si>
-  <si>
-    <t>katharina.wehrmeister@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>Yannik, Jünke</t>
-  </si>
-  <si>
-    <t>junke-yannik</t>
+    <t>3.45</t>
   </si>
   <si>
     <t>3.25</t>
   </si>
   <si>
-    <t>Yavuzer, Aytug</t>
-  </si>
-  <si>
-    <t>aytug-yavuzer</t>
-  </si>
-  <si>
-    <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>2.70</t>
+    <t>Dejkam, Rahil</t>
+  </si>
+  <si>
+    <t>rahil-dejkam</t>
+  </si>
+  <si>
+    <t>Direya, Rezeq</t>
+  </si>
+  <si>
+    <t>direya-rezeq</t>
+  </si>
+  <si>
+    <t>Li, Chengyang</t>
+  </si>
+  <si>
+    <t>chengyang-li</t>
+  </si>
+  <si>
+    <t>Ray, Calvin</t>
+  </si>
+  <si>
+    <t>calvin-ray</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>Khodadad, Sina</t>
+  </si>
+  <si>
+    <t>sina-khodadad</t>
+  </si>
+  <si>
+    <t>Wnhang, Le Thi Hong</t>
+  </si>
+  <si>
+    <t>le-thi-hong-wnhang</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>matthias</t>
+  </si>
+  <si>
+    <t>Vasilopoulos, Panagiotis</t>
+  </si>
+  <si>
+    <t>panagiotis-vasiloupolos</t>
+  </si>
+  <si>
+    <t>Nardone, Antonio</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>Bareiss, Vincent</t>
+  </si>
+  <si>
+    <t>bareiss-vincent</t>
+  </si>
+  <si>
+    <t>antonio_nardone</t>
+  </si>
+  <si>
+    <t>Antonio.nardone@unicas.it</t>
+  </si>
+  <si>
+    <t>Sreejith, P. Sajeev</t>
+  </si>
+  <si>
+    <t>p-sajeev</t>
+  </si>
+  <si>
+    <t>sreejith.pananchickal@eonerc.rwth-aachen.de</t>
+  </si>
+  <si>
+    <t>Cizmeci, Beyza</t>
+  </si>
+  <si>
+    <t>beyza-cizmeci</t>
+  </si>
+  <si>
+    <t>Sitzia, Davide</t>
+  </si>
+  <si>
+    <t>davide_sitzia</t>
+  </si>
+  <si>
+    <t>davide.sitzia@unica.it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +766,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,16 +812,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,9 +841,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -756,7 +881,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -790,6 +915,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -824,9 +950,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1000,13 +1127,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
@@ -1033,16 +1166,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1050,16 +1183,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1070,16 +1203,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1090,19 +1223,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>166</v>
       </c>
       <c r="F5">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1110,19 +1243,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="F6">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1130,19 +1263,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>168</v>
       </c>
       <c r="F7">
-        <v>57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1150,19 +1283,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1170,19 +1303,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="F9">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1190,16 +1323,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1210,19 +1343,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>172</v>
       </c>
       <c r="F11">
-        <v>33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1230,16 +1363,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1250,19 +1383,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1270,19 +1403,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>174</v>
       </c>
       <c r="F14">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1290,16 +1423,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>167</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1310,19 +1443,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="F16">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1330,19 +1463,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="F17">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1350,16 +1483,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1370,16 +1503,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1390,16 +1523,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1410,19 +1543,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="F21">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1430,16 +1563,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1450,19 +1583,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>84</v>
+        <v>181</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1470,16 +1603,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1490,16 +1623,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1510,16 +1643,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1530,16 +1663,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>184</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1550,16 +1683,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1570,19 +1703,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="E29" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="F29">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1590,19 +1723,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>187</v>
       </c>
       <c r="F30">
-        <v>51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1610,19 +1743,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="F31">
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1630,19 +1763,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>165</v>
       </c>
       <c r="F32">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1650,16 +1783,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="E33" t="s">
-        <v>121</v>
+        <v>189</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1670,16 +1803,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1690,19 +1823,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="F35">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1710,19 +1843,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="D36" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E36" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1730,19 +1863,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>134</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="F37">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,19 +1883,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="E38" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="F38">
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,19 +1903,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="F39">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1790,19 +1923,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="F40">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1810,16 +1943,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>146</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E41" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1830,16 +1963,16 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>152</v>
+        <v>198</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1850,16 +1983,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E43" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -1870,19 +2003,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>156</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>157</v>
+        <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="F44">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1890,16 +2023,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>159</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
-        <v>160</v>
+        <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E45" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -1910,19 +2043,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="F46">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1930,19 +2063,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>8</v>
+        <v>202</v>
       </c>
       <c r="F47">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1950,16 +2083,16 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>168</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E48" t="s">
-        <v>170</v>
+        <v>203</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1970,19 +2103,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>171</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E49" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1990,16 +2123,16 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>110</v>
       </c>
       <c r="D50" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2010,19 +2143,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F51">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2030,19 +2163,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="D52" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E52" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="F52">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2050,19 +2183,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
-        <v>187</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2070,19 +2203,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>189</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,19 +2223,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="D55" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="E55" t="s">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="F55">
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,19 +2243,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>195</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2130,16 +2263,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>199</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="D57" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2150,22 +2283,287 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="D58" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="E58" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>235</v>
+      </c>
+      <c r="C62" t="s">
+        <v>236</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63" t="s">
+        <v>220</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>231</v>
+      </c>
+      <c r="C64" t="s">
+        <v>232</v>
+      </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" t="s">
+        <v>222</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>240</v>
+      </c>
+      <c r="C66" t="s">
+        <v>241</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>229</v>
+      </c>
+      <c r="C68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E68" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" t="s">
+        <v>228</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <hyperlinks>
+    <hyperlink ref="D68" r:id="rId1" xr:uid="{9A695081-A4B9-4877-91FF-ADCB505956E6}"/>
+    <hyperlink ref="D62" r:id="rId2" display="mailto:sreejith.pananchickal@eonerc.rwth-aachen.de" xr:uid="{1AF45BB7-E728-4ED6-A824-515BE34153E3}"/>
+    <hyperlink ref="D66" r:id="rId3" xr:uid="{F9A057C0-5FAE-4C70-B301-C6122BEB551D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/acs_coffee_management/employees_input.xlsx
+++ b/acs_coffee_management/employees_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495EFE51-05CE-4728-BE87-65775FE8E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA6AFB-2204-407C-8D7F-4B3CA835501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -511,153 +511,6 @@
     <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
-    <t>5.40</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>9.15</t>
-  </si>
-  <si>
-    <t>16.26</t>
-  </si>
-  <si>
-    <t>7.35</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>0.40</t>
-  </si>
-  <si>
-    <t>24.30</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>8.10</t>
-  </si>
-  <si>
-    <t>-10.90</t>
-  </si>
-  <si>
-    <t>21.30</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>0.70</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>29.00</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>17.50</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>13.05</t>
-  </si>
-  <si>
-    <t>26.10</t>
-  </si>
-  <si>
-    <t>40.20</t>
-  </si>
-  <si>
-    <t>27.90</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>11.40</t>
-  </si>
-  <si>
-    <t>67.90</t>
-  </si>
-  <si>
-    <t>31.20</t>
-  </si>
-  <si>
-    <t>8.35</t>
-  </si>
-  <si>
-    <t>3.90</t>
-  </si>
-  <si>
-    <t>1.75</t>
-  </si>
-  <si>
-    <t>3.75</t>
-  </si>
-  <si>
-    <t>10.50</t>
-  </si>
-  <si>
-    <t>-4.20</t>
-  </si>
-  <si>
-    <t>5.10</t>
-  </si>
-  <si>
-    <t>22.80</t>
-  </si>
-  <si>
-    <t>4.05</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>6.15</t>
-  </si>
-  <si>
-    <t>6.05</t>
-  </si>
-  <si>
-    <t>6.65</t>
-  </si>
-  <si>
-    <t>10.70</t>
-  </si>
-  <si>
-    <t>20.10</t>
-  </si>
-  <si>
-    <t>3.45</t>
-  </si>
-  <si>
-    <t>3.25</t>
-  </si>
-  <si>
     <t>Dejkam, Rahil</t>
   </si>
   <si>
@@ -682,9 +535,6 @@
     <t>calvin-ray</t>
   </si>
   <si>
-    <t>0.3</t>
-  </si>
-  <si>
     <t>Khodadad, Sina</t>
   </si>
   <si>
@@ -710,9 +560,6 @@
   </si>
   <si>
     <t>Nardone, Antonio</t>
-  </si>
-  <si>
-    <t>12.0</t>
   </si>
   <si>
     <t>Bareiss, Vincent</t>
@@ -1129,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,8 +1018,8 @@
       <c r="D2" t="s">
         <v>119</v>
       </c>
-      <c r="E2" t="s">
-        <v>163</v>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1191,8 +1038,8 @@
       <c r="D3" t="s">
         <v>120</v>
       </c>
-      <c r="E3" t="s">
-        <v>164</v>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1211,8 +1058,8 @@
       <c r="D4" t="s">
         <v>121</v>
       </c>
-      <c r="E4" t="s">
-        <v>165</v>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1231,8 +1078,8 @@
       <c r="D5" t="s">
         <v>122</v>
       </c>
-      <c r="E5" t="s">
-        <v>166</v>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1251,8 +1098,8 @@
       <c r="D6" t="s">
         <v>123</v>
       </c>
-      <c r="E6" t="s">
-        <v>167</v>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1271,8 +1118,8 @@
       <c r="D7" t="s">
         <v>124</v>
       </c>
-      <c r="E7" t="s">
-        <v>168</v>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1291,8 +1138,8 @@
       <c r="D8" t="s">
         <v>125</v>
       </c>
-      <c r="E8" t="s">
-        <v>169</v>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1311,8 +1158,8 @@
       <c r="D9" t="s">
         <v>126</v>
       </c>
-      <c r="E9" t="s">
-        <v>170</v>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1331,8 +1178,8 @@
       <c r="D10" t="s">
         <v>127</v>
       </c>
-      <c r="E10" t="s">
-        <v>171</v>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1351,8 +1198,8 @@
       <c r="D11" t="s">
         <v>128</v>
       </c>
-      <c r="E11" t="s">
-        <v>172</v>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1371,8 +1218,8 @@
       <c r="D12" t="s">
         <v>129</v>
       </c>
-      <c r="E12" t="s">
-        <v>173</v>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1391,8 +1238,8 @@
       <c r="D13" t="s">
         <v>130</v>
       </c>
-      <c r="E13" t="s">
-        <v>163</v>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1411,8 +1258,8 @@
       <c r="D14" t="s">
         <v>131</v>
       </c>
-      <c r="E14" t="s">
-        <v>174</v>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1431,8 +1278,8 @@
       <c r="D15" t="s">
         <v>125</v>
       </c>
-      <c r="E15" t="s">
-        <v>167</v>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1451,8 +1298,8 @@
       <c r="D16" t="s">
         <v>132</v>
       </c>
-      <c r="E16" t="s">
-        <v>175</v>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1471,8 +1318,8 @@
       <c r="D17" t="s">
         <v>133</v>
       </c>
-      <c r="E17" t="s">
-        <v>176</v>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1491,8 +1338,8 @@
       <c r="D18" t="s">
         <v>134</v>
       </c>
-      <c r="E18" t="s">
-        <v>177</v>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1511,8 +1358,8 @@
       <c r="D19" t="s">
         <v>125</v>
       </c>
-      <c r="E19" t="s">
-        <v>178</v>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1531,8 +1378,8 @@
       <c r="D20" t="s">
         <v>125</v>
       </c>
-      <c r="E20" t="s">
-        <v>179</v>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1551,8 +1398,8 @@
       <c r="D21" t="s">
         <v>135</v>
       </c>
-      <c r="E21" t="s">
-        <v>180</v>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1571,8 +1418,8 @@
       <c r="D22" t="s">
         <v>136</v>
       </c>
-      <c r="E22" t="s">
-        <v>173</v>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1591,8 +1438,8 @@
       <c r="D23" t="s">
         <v>137</v>
       </c>
-      <c r="E23" t="s">
-        <v>181</v>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1611,8 +1458,8 @@
       <c r="D24" t="s">
         <v>138</v>
       </c>
-      <c r="E24" t="s">
-        <v>182</v>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1631,8 +1478,8 @@
       <c r="D25" t="s">
         <v>139</v>
       </c>
-      <c r="E25" t="s">
-        <v>183</v>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1651,8 +1498,8 @@
       <c r="D26" t="s">
         <v>140</v>
       </c>
-      <c r="E26" t="s">
-        <v>173</v>
+      <c r="E26">
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1671,8 +1518,8 @@
       <c r="D27" t="s">
         <v>125</v>
       </c>
-      <c r="E27" t="s">
-        <v>184</v>
+      <c r="E27">
+        <v>0</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1691,8 +1538,8 @@
       <c r="D28" t="s">
         <v>141</v>
       </c>
-      <c r="E28" t="s">
-        <v>185</v>
+      <c r="E28">
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1711,8 +1558,8 @@
       <c r="D29" t="s">
         <v>142</v>
       </c>
-      <c r="E29" t="s">
-        <v>186</v>
+      <c r="E29">
+        <v>0</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -1731,8 +1578,8 @@
       <c r="D30" t="s">
         <v>143</v>
       </c>
-      <c r="E30" t="s">
-        <v>187</v>
+      <c r="E30">
+        <v>0</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -1751,8 +1598,8 @@
       <c r="D31" t="s">
         <v>144</v>
       </c>
-      <c r="E31" t="s">
-        <v>188</v>
+      <c r="E31">
+        <v>0</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1771,8 +1618,8 @@
       <c r="D32" t="s">
         <v>145</v>
       </c>
-      <c r="E32" t="s">
-        <v>165</v>
+      <c r="E32">
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1791,8 +1638,8 @@
       <c r="D33" t="s">
         <v>146</v>
       </c>
-      <c r="E33" t="s">
-        <v>189</v>
+      <c r="E33">
+        <v>0</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -1811,8 +1658,8 @@
       <c r="D34" t="s">
         <v>147</v>
       </c>
-      <c r="E34" t="s">
-        <v>190</v>
+      <c r="E34">
+        <v>0</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1831,8 +1678,8 @@
       <c r="D35" t="s">
         <v>148</v>
       </c>
-      <c r="E35" t="s">
-        <v>191</v>
+      <c r="E35">
+        <v>0</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -1851,8 +1698,8 @@
       <c r="D36" t="s">
         <v>149</v>
       </c>
-      <c r="E36" t="s">
-        <v>192</v>
+      <c r="E36">
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1871,8 +1718,8 @@
       <c r="D37" t="s">
         <v>150</v>
       </c>
-      <c r="E37" t="s">
-        <v>193</v>
+      <c r="E37">
+        <v>0</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1891,8 +1738,8 @@
       <c r="D38" t="s">
         <v>151</v>
       </c>
-      <c r="E38" t="s">
-        <v>194</v>
+      <c r="E38">
+        <v>0</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1911,8 +1758,8 @@
       <c r="D39" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
-        <v>195</v>
+      <c r="E39">
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1931,8 +1778,8 @@
       <c r="D40" t="s">
         <v>152</v>
       </c>
-      <c r="E40" t="s">
-        <v>196</v>
+      <c r="E40">
+        <v>0</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1951,8 +1798,8 @@
       <c r="D41" t="s">
         <v>125</v>
       </c>
-      <c r="E41" t="s">
-        <v>197</v>
+      <c r="E41">
+        <v>0</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1971,8 +1818,8 @@
       <c r="D42" t="s">
         <v>153</v>
       </c>
-      <c r="E42" t="s">
-        <v>198</v>
+      <c r="E42">
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -1991,8 +1838,8 @@
       <c r="D43" t="s">
         <v>125</v>
       </c>
-      <c r="E43" t="s">
-        <v>199</v>
+      <c r="E43">
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2011,8 +1858,8 @@
       <c r="D44" t="s">
         <v>154</v>
       </c>
-      <c r="E44" t="s">
-        <v>190</v>
+      <c r="E44">
+        <v>0</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2031,8 +1878,8 @@
       <c r="D45" t="s">
         <v>155</v>
       </c>
-      <c r="E45" t="s">
-        <v>200</v>
+      <c r="E45">
+        <v>0</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2051,8 +1898,8 @@
       <c r="D46" t="s">
         <v>156</v>
       </c>
-      <c r="E46" t="s">
-        <v>201</v>
+      <c r="E46">
+        <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2071,8 +1918,8 @@
       <c r="D47" t="s">
         <v>125</v>
       </c>
-      <c r="E47" t="s">
-        <v>202</v>
+      <c r="E47">
+        <v>0</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2091,8 +1938,8 @@
       <c r="D48" t="s">
         <v>125</v>
       </c>
-      <c r="E48" t="s">
-        <v>203</v>
+      <c r="E48">
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -2111,8 +1958,8 @@
       <c r="D49" t="s">
         <v>157</v>
       </c>
-      <c r="E49" t="s">
-        <v>204</v>
+      <c r="E49">
+        <v>0</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -2131,8 +1978,8 @@
       <c r="D50" t="s">
         <v>158</v>
       </c>
-      <c r="E50" t="s">
-        <v>163</v>
+      <c r="E50">
+        <v>0</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2151,8 +1998,8 @@
       <c r="D51" t="s">
         <v>159</v>
       </c>
-      <c r="E51" t="s">
-        <v>205</v>
+      <c r="E51">
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2171,8 +2018,8 @@
       <c r="D52" t="s">
         <v>125</v>
       </c>
-      <c r="E52" t="s">
-        <v>206</v>
+      <c r="E52">
+        <v>0</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -2191,8 +2038,8 @@
       <c r="D53" t="s">
         <v>125</v>
       </c>
-      <c r="E53" t="s">
-        <v>207</v>
+      <c r="E53">
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -2211,8 +2058,8 @@
       <c r="D54" t="s">
         <v>125</v>
       </c>
-      <c r="E54" t="s">
-        <v>208</v>
+      <c r="E54">
+        <v>0</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2231,8 +2078,8 @@
       <c r="D55" t="s">
         <v>160</v>
       </c>
-      <c r="E55" t="s">
-        <v>209</v>
+      <c r="E55">
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2251,8 +2098,8 @@
       <c r="D56" t="s">
         <v>161</v>
       </c>
-      <c r="E56" t="s">
-        <v>210</v>
+      <c r="E56">
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -2271,8 +2118,8 @@
       <c r="D57" t="s">
         <v>125</v>
       </c>
-      <c r="E57" t="s">
-        <v>211</v>
+      <c r="E57">
+        <v>0</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -2291,8 +2138,8 @@
       <c r="D58" t="s">
         <v>162</v>
       </c>
-      <c r="E58" t="s">
-        <v>191</v>
+      <c r="E58">
+        <v>0</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2303,10 +2150,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="C59" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="D59" t="s">
         <v>125</v>
@@ -2323,10 +2170,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="C60" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="D60" t="s">
         <v>125</v>
@@ -2343,10 +2190,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="C61" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
         <v>125</v>
@@ -2363,13 +2210,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>235</v>
+        <v>184</v>
       </c>
       <c r="C62" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2383,16 +2230,16 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="D63" t="s">
         <v>125</v>
       </c>
-      <c r="E63" t="s">
-        <v>220</v>
+      <c r="E63">
+        <v>0</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2403,10 +2250,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="C64" t="s">
-        <v>232</v>
+        <v>181</v>
       </c>
       <c r="D64" t="s">
         <v>125</v>
@@ -2423,10 +2270,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="C65" t="s">
-        <v>222</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
         <v>125</v>
@@ -2443,13 +2290,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
-        <v>241</v>
+        <v>190</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>242</v>
+        <v>191</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2463,10 +2310,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>223</v>
+        <v>173</v>
       </c>
       <c r="C67" t="s">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="D67" t="s">
         <v>125</v>
@@ -2483,19 +2330,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>233</v>
+        <v>182</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E68" t="s">
-        <v>230</v>
+        <v>183</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2503,10 +2350,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>238</v>
+        <v>187</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="D69" t="s">
         <v>125</v>
@@ -2515,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2523,10 +2370,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>225</v>
+        <v>175</v>
       </c>
       <c r="C70" t="s">
-        <v>226</v>
+        <v>176</v>
       </c>
       <c r="D70" t="s">
         <v>125</v>
@@ -2535,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2543,10 +2390,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="C71" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="D71" t="s">
         <v>125</v>
@@ -2555,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/acs_coffee_management/employees_input.xlsx
+++ b/acs_coffee_management/employees_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lle\workspace\acs-coffee-management\acs_coffee_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5AA6AFB-2204-407C-8D7F-4B3CA835501A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A53607F-00C1-40B4-9C27-3C24279F3FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Cazal, Cesar</t>
   </si>
   <si>
-    <t>Chen, Kenny</t>
-  </si>
-  <si>
     <t>Eiling, Niklas</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>Gier, Wilfried</t>
   </si>
   <si>
-    <t>Hamila, Roua</t>
-  </si>
-  <si>
     <t>Hao, Fenshuo</t>
   </si>
   <si>
@@ -88,12 +82,6 @@
     <t>Hoegen, Marjorie</t>
   </si>
   <si>
-    <t>Joglekar, Charukeshi</t>
-  </si>
-  <si>
-    <t>Josevski, Martina</t>
-  </si>
-  <si>
     <t>Kannan, Yoga</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>Kröning, Martin</t>
   </si>
   <si>
-    <t>Kumalajati, Arya</t>
-  </si>
-  <si>
     <t>Köster, Iris</t>
   </si>
   <si>
@@ -148,21 +133,12 @@
     <t>Ponci, Ferdinanda</t>
   </si>
   <si>
-    <t>Prein, Simon</t>
-  </si>
-  <si>
     <t>Roth, Lara</t>
   </si>
   <si>
-    <t>Salawudeen, Ahmed</t>
-  </si>
-  <si>
     <t>Sangu, Nagar</t>
   </si>
   <si>
-    <t>Scalabrin, Riccardo</t>
-  </si>
-  <si>
     <t>Schwarz, Sebastian</t>
   </si>
   <si>
@@ -172,12 +148,6 @@
     <t>Sedighi, Foroogh</t>
   </si>
   <si>
-    <t>Simon, Sarah</t>
-  </si>
-  <si>
-    <t>Spies, Emily</t>
-  </si>
-  <si>
     <t>Stoyanova, Ivelina</t>
   </si>
   <si>
@@ -187,24 +157,12 @@
     <t>Tun, Su Mon</t>
   </si>
   <si>
-    <t>Van Megen, Arian</t>
-  </si>
-  <si>
-    <t>Vogel, Steffen</t>
-  </si>
-  <si>
-    <t>Vossel, Christian</t>
-  </si>
-  <si>
     <t>Wege, Felix</t>
   </si>
   <si>
     <t>Wehrmeister, Katharina</t>
   </si>
   <si>
-    <t>Yannik, Jünke</t>
-  </si>
-  <si>
     <t>Yavuzer, Aytug</t>
   </si>
   <si>
@@ -226,9 +184,6 @@
     <t>cesar-cazal</t>
   </si>
   <si>
-    <t>kenny-chen</t>
-  </si>
-  <si>
     <t>niklas-eiling</t>
   </si>
   <si>
@@ -247,9 +202,6 @@
     <t>wilfried-gier</t>
   </si>
   <si>
-    <t>roua-hamila</t>
-  </si>
-  <si>
     <t>fenshuo-hao</t>
   </si>
   <si>
@@ -259,12 +211,6 @@
     <t>marijorie-hoegen</t>
   </si>
   <si>
-    <t>charukeshi-joglekar</t>
-  </si>
-  <si>
-    <t>martina-josevski</t>
-  </si>
-  <si>
     <t>yoga-kannan</t>
   </si>
   <si>
@@ -283,9 +229,6 @@
     <t>martin-kroning</t>
   </si>
   <si>
-    <t>arya-kumalajati</t>
-  </si>
-  <si>
     <t>iris-koster</t>
   </si>
   <si>
@@ -319,21 +262,12 @@
     <t>ferdinanda-ponci</t>
   </si>
   <si>
-    <t>simon-prein</t>
-  </si>
-  <si>
     <t>lara-roth</t>
   </si>
   <si>
-    <t>ahmed-salawudeen</t>
-  </si>
-  <si>
     <t>nagar-sangu</t>
   </si>
   <si>
-    <t>riccardo-scalabrin</t>
-  </si>
-  <si>
     <t>sebastian-schwarz</t>
   </si>
   <si>
@@ -343,12 +277,6 @@
     <t>foroogh-sedighi</t>
   </si>
   <si>
-    <t>sarah-simon</t>
-  </si>
-  <si>
-    <t>emily-spies</t>
-  </si>
-  <si>
     <t>ivelina-stoyanova</t>
   </si>
   <si>
@@ -358,24 +286,12 @@
     <t>su-mon-tun</t>
   </si>
   <si>
-    <t>arian-van-megen</t>
-  </si>
-  <si>
-    <t>steffen-vogel</t>
-  </si>
-  <si>
-    <t>christian-vossel</t>
-  </si>
-  <si>
     <t>felix-wege</t>
   </si>
   <si>
     <t>katharina-wehrmeister</t>
   </si>
   <si>
-    <t>junke-yannik</t>
-  </si>
-  <si>
     <t>aytug-yavuzer</t>
   </si>
   <si>
@@ -397,9 +313,6 @@
     <t>cesar.cazal@eonerc.rwth-aachen.de</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>niklas.eiling@eonerc.rwth-aachen.de</t>
   </si>
   <si>
@@ -511,63 +424,9 @@
     <t>aytug.yavuzer@eonerc.rwth-aachen.de</t>
   </si>
   <si>
-    <t>Dejkam, Rahil</t>
-  </si>
-  <si>
-    <t>rahil-dejkam</t>
-  </si>
-  <si>
-    <t>Direya, Rezeq</t>
-  </si>
-  <si>
-    <t>direya-rezeq</t>
-  </si>
-  <si>
-    <t>Li, Chengyang</t>
-  </si>
-  <si>
-    <t>chengyang-li</t>
-  </si>
-  <si>
-    <t>Ray, Calvin</t>
-  </si>
-  <si>
-    <t>calvin-ray</t>
-  </si>
-  <si>
-    <t>Khodadad, Sina</t>
-  </si>
-  <si>
-    <t>sina-khodadad</t>
-  </si>
-  <si>
-    <t>Wnhang, Le Thi Hong</t>
-  </si>
-  <si>
-    <t>le-thi-hong-wnhang</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>matthias</t>
-  </si>
-  <si>
-    <t>Vasilopoulos, Panagiotis</t>
-  </si>
-  <si>
-    <t>panagiotis-vasiloupolos</t>
-  </si>
-  <si>
     <t>Nardone, Antonio</t>
   </si>
   <si>
-    <t>Bareiss, Vincent</t>
-  </si>
-  <si>
-    <t>bareiss-vincent</t>
-  </si>
-  <si>
     <t>antonio_nardone</t>
   </si>
   <si>
@@ -581,12 +440,6 @@
   </si>
   <si>
     <t>sreejith.pananchickal@eonerc.rwth-aachen.de</t>
-  </si>
-  <si>
-    <t>Cizmeci, Beyza</t>
-  </si>
-  <si>
-    <t>beyza-cizmeci</t>
   </si>
   <si>
     <t>Sitzia, Davide</t>
@@ -974,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1033,10 +886,10 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1053,10 +906,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1073,10 +926,10 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1093,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>95</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1113,10 +966,10 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1127,16 +980,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1147,16 +1000,16 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1167,16 +1020,16 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1187,16 +1040,16 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1207,16 +1060,16 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1227,16 +1080,16 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1247,16 +1100,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1267,16 +1120,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1287,16 +1140,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1307,16 +1160,16 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1327,16 +1180,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1347,16 +1200,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1367,16 +1220,16 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1387,16 +1240,16 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1407,16 +1260,16 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1427,16 +1280,16 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1447,16 +1300,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1467,16 +1320,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1487,16 +1340,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1507,16 +1360,16 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
         <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1527,16 +1380,16 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1547,16 +1400,16 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1567,16 +1420,16 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1587,16 +1440,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1607,16 +1460,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1627,16 +1480,16 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B33" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1647,16 +1500,16 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>37</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1667,16 +1520,16 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1687,16 +1540,16 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D36" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1707,16 +1560,16 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D37" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1727,16 +1580,16 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1747,16 +1600,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1767,16 +1620,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D40" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1787,16 +1640,16 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B41" t="s">
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1807,16 +1660,16 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1827,16 +1680,16 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1847,16 +1700,16 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1867,16 +1720,16 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" t="s">
-        <v>155</v>
+        <v>138</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1887,16 +1740,16 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>156</v>
+        <v>141</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1907,509 +1760,29 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="C47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>125</v>
+        <v>135</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="E47">
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>52</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C50" t="s">
-        <v>110</v>
-      </c>
-      <c r="D50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" t="s">
-        <v>111</v>
-      </c>
-      <c r="D51" t="s">
-        <v>159</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>60</v>
-      </c>
-      <c r="C57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" t="s">
-        <v>125</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" t="s">
-        <v>162</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>163</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>125</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>165</v>
-      </c>
-      <c r="C60" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>167</v>
-      </c>
-      <c r="C61" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>184</v>
-      </c>
-      <c r="C62" t="s">
-        <v>185</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E62">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>169</v>
-      </c>
-      <c r="C63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63" t="s">
-        <v>125</v>
-      </c>
-      <c r="E63">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>180</v>
-      </c>
-      <c r="C64" t="s">
-        <v>181</v>
-      </c>
-      <c r="D64" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E65">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>189</v>
-      </c>
-      <c r="C66" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E66">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>173</v>
-      </c>
-      <c r="C67" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" t="s">
-        <v>125</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C68" t="s">
-        <v>182</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>187</v>
-      </c>
-      <c r="C69" t="s">
-        <v>188</v>
-      </c>
-      <c r="D69" t="s">
-        <v>125</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" t="s">
-        <v>125</v>
-      </c>
-      <c r="E70">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>177</v>
-      </c>
-      <c r="C71" t="s">
-        <v>178</v>
-      </c>
-      <c r="D71" t="s">
-        <v>125</v>
-      </c>
-      <c r="E71">
-        <v>0</v>
-      </c>
-      <c r="F71">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D68" r:id="rId1" xr:uid="{9A695081-A4B9-4877-91FF-ADCB505956E6}"/>
-    <hyperlink ref="D62" r:id="rId2" display="mailto:sreejith.pananchickal@eonerc.rwth-aachen.de" xr:uid="{1AF45BB7-E728-4ED6-A824-515BE34153E3}"/>
-    <hyperlink ref="D66" r:id="rId3" xr:uid="{F9A057C0-5FAE-4C70-B301-C6122BEB551D}"/>
+    <hyperlink ref="D47" r:id="rId1" xr:uid="{9A695081-A4B9-4877-91FF-ADCB505956E6}"/>
+    <hyperlink ref="D45" r:id="rId2" display="mailto:sreejith.pananchickal@eonerc.rwth-aachen.de" xr:uid="{1AF45BB7-E728-4ED6-A824-515BE34153E3}"/>
+    <hyperlink ref="D46" r:id="rId3" xr:uid="{F9A057C0-5FAE-4C70-B301-C6122BEB551D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
